--- a/biology/Zoologie/Campagnol_de_Felten/Campagnol_de_Felten.xlsx
+++ b/biology/Zoologie/Campagnol_de_Felten/Campagnol_de_Felten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microtus felteni
 Le Campagnol de Felten (Microtus felteni) est une espèce de rongeurs de la famille des Cricetidae. 
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Campagnol de Felten se rencontre en Albanie, en Grèce, en Macédoine et en Serbie. Il est présent dans les forêts de montagnes mais parfois également sur des terres arables[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Campagnol de Felten se rencontre en Albanie, en Grèce, en Macédoine et en Serbie. Il est présent dans les forêts de montagnes mais parfois également sur des terres arables.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vulnérabilité de l’espèce n'est pas évaluée car, en plus de sa rareté, elle est endémique d'une petite région méditerranéenne. Seule la population située en Grèce est évaluée, et une diminution de 20 à 25 % de la population a été constatée. La population au nord ne l’est pas[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vulnérabilité de l’espèce n'est pas évaluée car, en plus de sa rareté, elle est endémique d'une petite région méditerranéenne. Seule la population située en Grèce est évaluée, et une diminution de 20 à 25 % de la population a été constatée. La population au nord ne l’est pas.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, felteni, ainsi que son nom vernaculaire, « de Felten », lui ont été donnés en l'honneur de Heinz Felten (d) (1922-2000), mammalogiste allemand[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, felteni, ainsi que son nom vernaculaire, « de Felten », lui ont été donnés en l'honneur de Heinz Felten (d) (1922-2000), mammalogiste allemand.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Franz Malec et Gerhard Storch, « Kleinsäuger (Mammalia) aus Makedonien, Jugoslawien », Senckenbergiana Biologica, vol. 44, no 3,‎ 1963, p. 155–173 (ISSN 0037-2102).</t>
         </is>
